--- a/digitizedData/data33kVsubStation-August-14-2023.xlsx
+++ b/digitizedData/data33kVsubStation-August-14-2023.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/susan/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/susan/Documents/POWER GRID/HW2/digitizedData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72B2B76C-3457-7745-9125-22EF210D316C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28A01D6B-6DFB-F74E-B098-AAF62D1D63D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -134,19 +134,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -373,7 +371,7 @@
   <dimension ref="A1:K1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O28" sqref="O28"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -424,7 +422,7 @@
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
-        <v>44755</v>
+        <v>45152</v>
       </c>
       <c r="I5" s="1">
         <v>5.75</v>
@@ -435,7 +433,7 @@
     </row>
     <row r="6" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
-        <v>44755.041666666701</v>
+        <v>45152.041666666664</v>
       </c>
       <c r="I6" s="1">
         <v>5</v>
@@ -446,7 +444,7 @@
     </row>
     <row r="7" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
-        <v>44755.083333333299</v>
+        <v>45152.08333321759</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>12</v>
@@ -457,7 +455,7 @@
     </row>
     <row r="8" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
-        <v>44755.125</v>
+        <v>45152.124999826388</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>12</v>
@@ -468,7 +466,7 @@
     </row>
     <row r="9" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
-        <v>44755.166666666701</v>
+        <v>45152.166666435187</v>
       </c>
       <c r="I9" s="1">
         <v>4.8</v>
@@ -479,7 +477,7 @@
     </row>
     <row r="10" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
-        <v>44755.208333333299</v>
+        <v>45152.208333043978</v>
       </c>
       <c r="I10" s="1">
         <v>4.6500000000000004</v>
@@ -489,29 +487,29 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="4">
-        <v>44755.25</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5">
+      <c r="A11" s="2">
+        <v>45152.249999652777</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4">
         <v>4.5</v>
       </c>
-      <c r="J11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K11" s="5">
+      <c r="J11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" s="4">
         <v>73753</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="4">
-        <v>44755.291666666701</v>
+      <c r="A12" s="2">
+        <v>45152.291666261575</v>
       </c>
       <c r="I12" s="1">
         <v>5.4</v>
@@ -521,8 +519,8 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="4">
-        <v>44755.333333333401</v>
+      <c r="A13" s="2">
+        <v>45152.333332870374</v>
       </c>
       <c r="I13" s="1">
         <v>5.4</v>
@@ -532,8 +530,8 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="4">
-        <v>44755.375</v>
+      <c r="A14" s="2">
+        <v>45152.374999479165</v>
       </c>
       <c r="I14" s="1">
         <v>5.4</v>
@@ -543,8 +541,8 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="4">
-        <v>44755.416666666701</v>
+      <c r="A15" s="2">
+        <v>45152.416666087964</v>
       </c>
       <c r="I15" s="1">
         <v>5.5</v>
@@ -554,8 +552,8 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="4">
-        <v>44755.458333333401</v>
+      <c r="A16" s="2">
+        <v>45152.458332696762</v>
       </c>
       <c r="I16" s="1">
         <v>5.5</v>
@@ -565,8 +563,8 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="4">
-        <v>44755.5</v>
+      <c r="A17" s="2">
+        <v>45152.499999305554</v>
       </c>
       <c r="I17" s="1">
         <v>6.4</v>
@@ -576,8 +574,8 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="4">
-        <v>44755.541666666701</v>
+      <c r="A18" s="2">
+        <v>45152.541665914352</v>
       </c>
       <c r="I18" s="1">
         <v>5.75</v>
@@ -587,29 +585,29 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="7">
-        <v>44755.583333333401</v>
-      </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8">
+      <c r="A19" s="2">
+        <v>45152.583332523151</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6">
         <v>5.5</v>
       </c>
-      <c r="J19" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="8">
+      <c r="J19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" s="6">
         <v>73561</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="7">
-        <v>44755.625</v>
+      <c r="A20" s="2">
+        <v>45152.624999131942</v>
       </c>
       <c r="I20" s="1">
         <v>5.5</v>
@@ -619,8 +617,8 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="7">
-        <v>44755.666666666701</v>
+      <c r="A21" s="2">
+        <v>45152.66666574074</v>
       </c>
       <c r="I21" s="1">
         <v>6.2</v>
@@ -630,8 +628,8 @@
       </c>
     </row>
     <row r="22" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="7">
-        <v>44755.708333333401</v>
+      <c r="A22" s="2">
+        <v>45152.708332349539</v>
       </c>
       <c r="I22" s="1">
         <v>6.2</v>
@@ -641,8 +639,8 @@
       </c>
     </row>
     <row r="23" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="7">
-        <v>44755.750000000102</v>
+      <c r="A23" s="2">
+        <v>45152.74999895833</v>
       </c>
       <c r="I23" s="1">
         <v>6.2</v>
@@ -652,8 +650,8 @@
       </c>
     </row>
     <row r="24" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="7">
-        <v>44755.791666666701</v>
+      <c r="A24" s="2">
+        <v>45152.791665567129</v>
       </c>
       <c r="I24" s="1">
         <v>6.2</v>
@@ -663,8 +661,8 @@
       </c>
     </row>
     <row r="25" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="7">
-        <v>44755.833333333401</v>
+      <c r="A25" s="2">
+        <v>45152.833332175927</v>
       </c>
       <c r="I25" s="1">
         <v>5.5</v>
@@ -674,8 +672,8 @@
       </c>
     </row>
     <row r="26" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="7">
-        <v>44755.875000000102</v>
+      <c r="A26" s="2">
+        <v>45152.874998784719</v>
       </c>
       <c r="I26" s="1">
         <v>5.5</v>
@@ -686,28 +684,28 @@
     </row>
     <row r="27" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
-        <v>44755.916666666701</v>
-      </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10">
+        <v>45152.916665393517</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8">
         <v>5.75</v>
       </c>
-      <c r="J27" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="K27" s="10">
+      <c r="J27" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K27" s="8">
         <v>73771</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
-        <v>44755.958333333401</v>
+        <v>45152.958332002316</v>
       </c>
       <c r="I28" s="1">
         <v>5.8</v>
